--- a/biology/Mycologie/Monilinia_laxa/Monilinia_laxa.xlsx
+++ b/biology/Mycologie/Monilinia_laxa/Monilinia_laxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monilinia laxa est une espèce de champignons ascomycètes de la famille des Sclerotiniaceae. Le stade anamorphe de cette espèce est Monilia laxa.
 Ce champignon est responsable d'une maladie cryptogamique, une forme de moniliose, la moniliose des arbres fruitiers.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (21 septembre 2014)[1] :	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (21 septembre 2014) :	
 Acrosporium laxum (Ehrenb.) Pers. 1822,
 Monilia cinerea Bonord. 1851,
 Monilia laxa (Ehrenb.) Sacc. &amp; Voglino 1886,
